--- a/sheets/Solutions/InputDataFile_Aproximação numérica.xlsx
+++ b/sheets/Solutions/InputDataFile_Aproximação numérica.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\OneDrive\Documentos\GitHub\IC Tecidos Moles\sheets\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2720871-9C4A-48B5-B226-A02B9E818F30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5788885A-959A-4EDF-8D60-E76B70BCDB16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="11385"/>
   </bookViews>
   <sheets>
-    <sheet name="InputDataFile_1" sheetId="1" r:id="rId1"/>
+    <sheet name="InputDataFile_0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -25,10 +25,10 @@
     <t>Initial Time: 0 s</t>
   </si>
   <si>
-    <t>Time Step: 0,1 s</t>
+    <t>Time Step: 0,05 s</t>
   </si>
   <si>
-    <t>Final Time: 600,1 s</t>
+    <t>Final Time: 600 s</t>
   </si>
   <si>
     <t>Elastic Stress Constant (A): 0,001</t>
@@ -895,6 +895,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
